--- a/APP/API/Excel/plantillasEXCEL/warehouses.xlsx
+++ b/APP/API/Excel/plantillasEXCEL/warehouses.xlsx
@@ -113,7 +113,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -122,7 +122,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,38 +320,61 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="38.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="8.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="2" width="8.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
